--- a/trunk/CHAU/DeadlineTeam/1. Project management/5. Risk management plan/3. Control/AS_PM_RiskManagementList.xlsx
+++ b/trunk/CHAU/DeadlineTeam/1. Project management/5. Risk management plan/3. Control/AS_PM_RiskManagementList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngoc\Dropbox\AD-DeadlineTeam\1. Project management\5. Risk management plan_reviewed\3. Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\4. AS project\CHAU\DeadlineTeam\1. Project management\5. Risk management plan\3. Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" tabRatio="826"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="15240" windowHeight="8100" tabRatio="826" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team member" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -501,6 +501,9 @@
     <t>Risk recorded</t>
   </si>
   <si>
+    <t>Project Risk Manager:</t>
+  </si>
+  <si>
     <t>Team member list</t>
   </si>
   <si>
@@ -562,9 +565,6 @@
   </si>
   <si>
     <t>Sanction base on the law of group</t>
-  </si>
-  <si>
-    <t>Project Risk Manager: Ngo Quang Huy</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1171,7 +1171,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2516,8 +2516,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A5:E29" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A5:E28" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="RISK ID" dataDxfId="48"/>
     <tableColumn id="2" name="LIST RISK" dataDxfId="47"/>
@@ -2530,8 +2530,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table467" displayName="Table467" ref="A5:E29" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table467" displayName="Table467" ref="A5:E28" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="RISK ID" dataDxfId="39"/>
     <tableColumn id="2" name="LIST RISK" dataDxfId="38"/>
@@ -2544,8 +2544,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table468" displayName="Table468" ref="A5:E29" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table468" displayName="Table468" ref="A5:E28" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="RISK ID" dataDxfId="30"/>
     <tableColumn id="2" name="LIST RISK" dataDxfId="29"/>
@@ -2558,8 +2558,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4689" displayName="Table4689" ref="A5:E29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table4689" displayName="Table4689" ref="A5:E28" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="RISK ID" dataDxfId="21"/>
     <tableColumn id="2" name="LIST RISK" dataDxfId="20"/>
@@ -2572,8 +2572,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table468910" displayName="Table468910" ref="A5:E29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A5:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table468910" displayName="Table468910" ref="A5:E28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A5:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="RISK ID" dataDxfId="12"/>
     <tableColumn id="2" name="LIST RISK" dataDxfId="11"/>
@@ -2589,7 +2589,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table6" displayName="Table6" ref="A5:D26" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A5:D26"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Risk ID" dataDxfId="3"/>
+    <tableColumn id="1" name="ID" dataDxfId="3"/>
     <tableColumn id="2" name="Week" dataDxfId="2"/>
     <tableColumn id="3" name="Risk" dataDxfId="1"/>
     <tableColumn id="4" name="Plan/Methods" dataDxfId="0"/>
@@ -2887,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2900,7 +2900,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="8"/>
     </row>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="52"/>
@@ -4263,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,7 +4594,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -4654,19 +4654,19 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
@@ -4910,7 +4910,7 @@
       <c r="E21" s="66"/>
       <c r="G21" s="59"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>17</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26" s="69">
         <v>20</v>
@@ -5020,7 +5020,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C29" s="69">
         <v>60</v>
@@ -5046,10 +5046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5379,7 +5379,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -5439,19 +5439,19 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
@@ -5695,7 +5695,7 @@
       <c r="E21" s="66"/>
       <c r="G21" s="59"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>17</v>
       </c>
@@ -5759,8 +5759,8 @@
       <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>155</v>
+      <c r="B26" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="69">
         <v>60</v>
@@ -5789,31 +5789,16 @@
       <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>50</v>
+      <c r="B28" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="C28" s="69">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D28" s="69">
         <v>50</v>
       </c>
       <c r="E28" s="66"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
-        <v>24</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="69">
-        <v>60</v>
-      </c>
-      <c r="D29" s="69">
-        <v>50</v>
-      </c>
-      <c r="E29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5832,12 +5817,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6167,7 +6152,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -6207,7 +6192,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -6227,19 +6212,19 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
@@ -6483,7 +6468,7 @@
       <c r="E21" s="66"/>
       <c r="G21" s="59"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>17</v>
       </c>
@@ -6547,8 +6532,8 @@
       <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>155</v>
+      <c r="B26" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="70">
         <v>60</v>
@@ -6577,31 +6562,16 @@
       <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>50</v>
+      <c r="B28" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="C28" s="70">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D28" s="70">
         <v>50</v>
       </c>
       <c r="E28" s="66"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
-        <v>24</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="70">
-        <v>60</v>
-      </c>
-      <c r="D29" s="70">
-        <v>50</v>
-      </c>
-      <c r="E29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6619,10 +6589,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6952,7 +6922,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -6992,7 +6962,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -7012,19 +6982,19 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
@@ -7268,7 +7238,7 @@
       <c r="E21" s="66"/>
       <c r="G21" s="59"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>17</v>
       </c>
@@ -7332,8 +7302,8 @@
       <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>155</v>
+      <c r="B26" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="69">
         <v>10</v>
@@ -7362,31 +7332,16 @@
       <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>50</v>
+      <c r="B28" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="C28" s="69">
+        <v>40</v>
+      </c>
+      <c r="D28" s="69">
         <v>30</v>
       </c>
-      <c r="D28" s="69">
-        <v>40</v>
-      </c>
       <c r="E28" s="66"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
-        <v>24</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="69">
-        <v>40</v>
-      </c>
-      <c r="D29" s="69">
-        <v>30</v>
-      </c>
-      <c r="E29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7404,10 +7359,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7737,7 +7692,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -7777,7 +7732,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -7797,19 +7752,19 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
@@ -8053,7 +8008,7 @@
       <c r="E21" s="66"/>
       <c r="G21" s="59"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>17</v>
       </c>
@@ -8117,8 +8072,8 @@
       <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>155</v>
+      <c r="B26" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="69">
         <v>50</v>
@@ -8147,31 +8102,16 @@
       <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>50</v>
+      <c r="B28" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="C28" s="69">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D28" s="69">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E28" s="66"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
-        <v>24</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="69">
-        <v>40</v>
-      </c>
-      <c r="D29" s="69">
-        <v>40</v>
-      </c>
-      <c r="E29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8189,10 +8129,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8522,7 +8462,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -8562,7 +8502,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -8582,19 +8522,19 @@
     </row>
     <row r="5" spans="1:16" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8645,7 +8585,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8677,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8694,7 +8634,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8726,7 +8666,7 @@
         <v>60</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8858,7 +8798,7 @@
       <c r="E21" s="68"/>
       <c r="G21" s="59"/>
     </row>
-    <row r="22" spans="1:7" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="53" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
         <v>17</v>
       </c>
@@ -8887,7 +8827,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -8921,15 +8861,15 @@
         <v>80</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
         <v>21</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>155</v>
+      <c r="B26" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="69">
         <v>70</v>
@@ -8962,31 +8902,16 @@
       <c r="A28" s="67">
         <v>23</v>
       </c>
-      <c r="B28" s="60" t="s">
-        <v>50</v>
+      <c r="B28" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="C28" s="69">
+        <v>70</v>
+      </c>
+      <c r="D28" s="69">
         <v>60</v>
       </c>
-      <c r="D28" s="69">
-        <v>50</v>
-      </c>
       <c r="E28" s="68"/>
-    </row>
-    <row r="29" spans="1:7" s="53" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
-        <v>24</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="69">
-        <v>70</v>
-      </c>
-      <c r="D29" s="69">
-        <v>60</v>
-      </c>
-      <c r="E29" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9006,8 +8931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9060,7 +8985,7 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B3" s="75"/>
     </row>
@@ -9888,7 +9813,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -10409,8 +10334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10439,7 +10364,7 @@
     </row>
     <row r="3" spans="1:4" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -10453,7 +10378,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>139</v>
@@ -10465,7 +10390,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="39">
         <v>1</v>
@@ -10473,7 +10398,7 @@
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="39">
         <v>2</v>
@@ -10481,7 +10406,7 @@
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="39">
         <v>3</v>
@@ -10489,7 +10414,7 @@
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="39">
         <v>4</v>
@@ -10497,7 +10422,7 @@
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="39">
         <v>5</v>
@@ -10505,7 +10430,7 @@
       <c r="C10" s="40"/>
       <c r="D10" s="41"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="39">
         <v>6</v>
@@ -10513,7 +10438,7 @@
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="39">
         <v>7</v>
@@ -10521,7 +10446,7 @@
       <c r="C12" s="40"/>
       <c r="D12" s="41"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="39">
         <v>8</v>
@@ -10529,7 +10454,7 @@
       <c r="C13" s="40"/>
       <c r="D13" s="41"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="39">
         <v>9</v>
@@ -10537,7 +10462,7 @@
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="39">
         <v>10</v>
@@ -10545,7 +10470,7 @@
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="39">
         <v>11</v>
@@ -10553,7 +10478,7 @@
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="39">
         <v>12</v>
@@ -10561,7 +10486,7 @@
       <c r="C17" s="40"/>
       <c r="D17" s="41"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="39">
         <v>13</v>
@@ -10569,7 +10494,7 @@
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="39">
         <v>14</v>
